--- a/medicine/Œil et vue/Trichiasis/Trichiasis.xlsx
+++ b/medicine/Œil et vue/Trichiasis/Trichiasis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Un trichiasis est une inflexion des cils vers l'œil, ce qui provoque une irritation de la cornée (kératite) responsable de douleurs. 
 Le cil trichiasique est d'orientation anormale mais de position normale (sur la ligne ciliaire), contrairement au cil distichiasique (distichiasis) qui n'est pas en position normale (en dehors de la ligne ciliaire)
